--- a/BarcodeDataAndSuppFig5-6-7/run27_CountTable.xlsx
+++ b/BarcodeDataAndSuppFig5-6-7/run27_CountTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/PAPERAUG2021/Quasispecies/wtandalphadata/run27/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/revisions_Sep2024/bc_processing_and_supfig567/bc1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D382CC8F-88E0-2F4B-91D8-D14DF34B4156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF47685-9AD6-4E4B-9383-8E8597F5EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11620" yWindow="500" windowWidth="39580" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,12 +50,6 @@
     <t>Spoly</t>
   </si>
   <si>
-    <t>Swf_26</t>
-  </si>
-  <si>
-    <t>Swf_26_Omicron</t>
-  </si>
-  <si>
     <t>gACTB</t>
   </si>
   <si>
@@ -1227,6 +1221,12 @@
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>Srbd_v2</t>
+  </si>
+  <si>
+    <t>Srbd_v2_Omicron</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1597,36 +1597,36 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1662,15 +1662,15 @@
         <v>88797</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1706,15 +1706,15 @@
         <v>16473</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4">
         <v>10668</v>
@@ -1750,15 +1750,15 @@
         <v>136888</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1794,15 +1794,15 @@
         <v>85704</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6">
         <v>1271</v>
@@ -1838,15 +1838,15 @@
         <v>74539</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7">
         <v>1137</v>
@@ -1882,15 +1882,15 @@
         <v>96665</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C8">
         <v>969</v>
@@ -1926,15 +1926,15 @@
         <v>124618</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -1970,15 +1970,15 @@
         <v>345760</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10">
         <v>27</v>
@@ -2014,15 +2014,15 @@
         <v>90745</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11">
         <v>142</v>
@@ -2058,15 +2058,15 @@
         <v>125363</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12">
         <v>915</v>
@@ -2102,15 +2102,15 @@
         <v>78389</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13">
         <v>571</v>
@@ -2146,15 +2146,15 @@
         <v>114775</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14">
         <v>1498</v>
@@ -2190,15 +2190,15 @@
         <v>66304</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2234,15 +2234,15 @@
         <v>222724</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -2278,15 +2278,15 @@
         <v>180517</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2322,15 +2322,15 @@
         <v>67514</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C18">
         <v>2028</v>
@@ -2366,15 +2366,15 @@
         <v>184130</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C19">
         <v>1678</v>
@@ -2410,15 +2410,15 @@
         <v>115477</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C20">
         <v>616</v>
@@ -2454,15 +2454,15 @@
         <v>287135</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C21">
         <v>2051</v>
@@ -2498,15 +2498,15 @@
         <v>56763</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C22">
         <v>198</v>
@@ -2542,15 +2542,15 @@
         <v>83767</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23">
         <v>280</v>
@@ -2586,15 +2586,15 @@
         <v>196710</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -2630,15 +2630,15 @@
         <v>151136</v>
       </c>
       <c r="N24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25">
         <v>232</v>
@@ -2674,15 +2674,15 @@
         <v>166805</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C26">
         <v>37</v>
@@ -2718,15 +2718,15 @@
         <v>296272</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C27">
         <v>3256</v>
@@ -2762,15 +2762,15 @@
         <v>267054</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -2806,15 +2806,15 @@
         <v>108893</v>
       </c>
       <c r="N28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C29">
         <v>331</v>
@@ -2850,15 +2850,15 @@
         <v>163404</v>
       </c>
       <c r="N29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C30">
         <v>2550</v>
@@ -2894,15 +2894,15 @@
         <v>104861</v>
       </c>
       <c r="N30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2938,15 +2938,15 @@
         <v>57975</v>
       </c>
       <c r="N31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C32">
         <v>510</v>
@@ -2982,15 +2982,15 @@
         <v>88663</v>
       </c>
       <c r="N32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C33">
         <v>289</v>
@@ -3026,15 +3026,15 @@
         <v>118124</v>
       </c>
       <c r="N33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C34">
         <v>19</v>
@@ -3070,15 +3070,15 @@
         <v>191401</v>
       </c>
       <c r="N34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C35">
         <v>6823</v>
@@ -3114,15 +3114,15 @@
         <v>95158</v>
       </c>
       <c r="N35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C36">
         <v>1194</v>
@@ -3158,15 +3158,15 @@
         <v>333171</v>
       </c>
       <c r="N36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C37">
         <v>15633</v>
@@ -3202,15 +3202,15 @@
         <v>81689</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C38">
         <v>408</v>
@@ -3246,15 +3246,15 @@
         <v>79498</v>
       </c>
       <c r="N38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3290,15 +3290,15 @@
         <v>143727</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C40">
         <v>1077</v>
@@ -3334,15 +3334,15 @@
         <v>98197</v>
       </c>
       <c r="N40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C41">
         <v>54</v>
@@ -3378,15 +3378,15 @@
         <v>229369</v>
       </c>
       <c r="N41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C42">
         <v>1142</v>
@@ -3422,15 +3422,15 @@
         <v>85932</v>
       </c>
       <c r="N42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C43">
         <v>234</v>
@@ -3466,15 +3466,15 @@
         <v>138192</v>
       </c>
       <c r="N43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3510,15 +3510,15 @@
         <v>126489</v>
       </c>
       <c r="N44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C45">
         <v>4032</v>
@@ -3554,15 +3554,15 @@
         <v>112362</v>
       </c>
       <c r="N45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C46">
         <v>233</v>
@@ -3598,15 +3598,15 @@
         <v>143815</v>
       </c>
       <c r="N46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C47">
         <v>170</v>
@@ -3642,15 +3642,15 @@
         <v>31477</v>
       </c>
       <c r="N47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C48">
         <v>665</v>
@@ -3686,15 +3686,15 @@
         <v>46440</v>
       </c>
       <c r="N48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C49">
         <v>886</v>
@@ -3730,15 +3730,15 @@
         <v>50028</v>
       </c>
       <c r="N49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C50">
         <v>1222</v>
@@ -3774,15 +3774,15 @@
         <v>176911</v>
       </c>
       <c r="N50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C51">
         <v>625</v>
@@ -3818,15 +3818,15 @@
         <v>128518</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C52">
         <v>210</v>
@@ -3862,15 +3862,15 @@
         <v>48604</v>
       </c>
       <c r="N52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C53">
         <v>1012</v>
@@ -3906,15 +3906,15 @@
         <v>67437</v>
       </c>
       <c r="N53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C54">
         <v>537</v>
@@ -3950,15 +3950,15 @@
         <v>149459</v>
       </c>
       <c r="N54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C55">
         <v>5219</v>
@@ -3994,15 +3994,15 @@
         <v>70359</v>
       </c>
       <c r="N55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C56">
         <v>91</v>
@@ -4038,15 +4038,15 @@
         <v>137325</v>
       </c>
       <c r="N56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C57">
         <v>667</v>
@@ -4082,15 +4082,15 @@
         <v>76726</v>
       </c>
       <c r="N57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C58">
         <v>190</v>
@@ -4126,15 +4126,15 @@
         <v>226388</v>
       </c>
       <c r="N58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59">
         <v>596</v>
@@ -4170,15 +4170,15 @@
         <v>406079</v>
       </c>
       <c r="N59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C60">
         <v>818</v>
@@ -4214,15 +4214,15 @@
         <v>103774</v>
       </c>
       <c r="N60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C61">
         <v>546</v>
@@ -4258,15 +4258,15 @@
         <v>212952</v>
       </c>
       <c r="N61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C62">
         <v>53</v>
@@ -4302,15 +4302,15 @@
         <v>215274</v>
       </c>
       <c r="N62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C63">
         <v>348</v>
@@ -4346,15 +4346,15 @@
         <v>271954</v>
       </c>
       <c r="N63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C64">
         <v>2311</v>
@@ -4390,15 +4390,15 @@
         <v>118534</v>
       </c>
       <c r="N64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C65">
         <v>184</v>
@@ -4434,15 +4434,15 @@
         <v>78698</v>
       </c>
       <c r="N65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C66">
         <v>274</v>
@@ -4478,15 +4478,15 @@
         <v>71522</v>
       </c>
       <c r="N66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C67">
         <v>630</v>
@@ -4522,15 +4522,15 @@
         <v>148124</v>
       </c>
       <c r="N67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C68">
         <v>32</v>
@@ -4566,15 +4566,15 @@
         <v>107436</v>
       </c>
       <c r="N68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C69">
         <v>96</v>
@@ -4610,15 +4610,15 @@
         <v>64546</v>
       </c>
       <c r="N69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C70">
         <v>277</v>
@@ -4654,15 +4654,15 @@
         <v>78450</v>
       </c>
       <c r="N70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C71">
         <v>117</v>
@@ -4698,15 +4698,15 @@
         <v>120111</v>
       </c>
       <c r="N71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C72">
         <v>3954</v>
@@ -4742,15 +4742,15 @@
         <v>47243</v>
       </c>
       <c r="N72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -4786,15 +4786,15 @@
         <v>93164</v>
       </c>
       <c r="N73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C74">
         <v>33</v>
@@ -4830,15 +4830,15 @@
         <v>241639</v>
       </c>
       <c r="N74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C75">
         <v>15</v>
@@ -4874,15 +4874,15 @@
         <v>164670</v>
       </c>
       <c r="N75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C76">
         <v>14</v>
@@ -4918,15 +4918,15 @@
         <v>85966</v>
       </c>
       <c r="N76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C77">
         <v>33</v>
@@ -4962,15 +4962,15 @@
         <v>57920</v>
       </c>
       <c r="N77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -5006,15 +5006,15 @@
         <v>113220</v>
       </c>
       <c r="N78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C79">
         <v>48</v>
@@ -5050,15 +5050,15 @@
         <v>172095</v>
       </c>
       <c r="N79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C80">
         <v>53</v>
@@ -5094,15 +5094,15 @@
         <v>85120</v>
       </c>
       <c r="N80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C81">
         <v>27</v>
@@ -5138,15 +5138,15 @@
         <v>239738</v>
       </c>
       <c r="N81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C82">
         <v>88</v>
@@ -5182,15 +5182,15 @@
         <v>81104</v>
       </c>
       <c r="N82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C83">
         <v>3925</v>
@@ -5226,15 +5226,15 @@
         <v>57226</v>
       </c>
       <c r="N83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C84">
         <v>178</v>
@@ -5270,15 +5270,15 @@
         <v>159333</v>
       </c>
       <c r="N84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C85">
         <v>439</v>
@@ -5314,15 +5314,15 @@
         <v>172342</v>
       </c>
       <c r="N85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C86">
         <v>496</v>
@@ -5358,15 +5358,15 @@
         <v>46431</v>
       </c>
       <c r="N86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C87">
         <v>3395</v>
@@ -5402,15 +5402,15 @@
         <v>162701</v>
       </c>
       <c r="N87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C88">
         <v>18</v>
@@ -5446,15 +5446,15 @@
         <v>163258</v>
       </c>
       <c r="N88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -5490,15 +5490,15 @@
         <v>89504</v>
       </c>
       <c r="N89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C90">
         <v>1412</v>
@@ -5534,15 +5534,15 @@
         <v>94880</v>
       </c>
       <c r="N90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C91">
         <v>305</v>
@@ -5578,15 +5578,15 @@
         <v>151385</v>
       </c>
       <c r="N91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C92">
         <v>1023</v>
@@ -5622,15 +5622,15 @@
         <v>59996</v>
       </c>
       <c r="N92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C93">
         <v>3430</v>
@@ -5666,15 +5666,15 @@
         <v>107583</v>
       </c>
       <c r="N93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -5710,15 +5710,15 @@
         <v>148082</v>
       </c>
       <c r="N94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -5754,15 +5754,15 @@
         <v>93389</v>
       </c>
       <c r="N95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C96">
         <v>121</v>
@@ -5798,15 +5798,15 @@
         <v>174479</v>
       </c>
       <c r="N96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C97">
         <v>99</v>
@@ -5842,15 +5842,15 @@
         <v>124584</v>
       </c>
       <c r="N97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C98">
         <v>76</v>
@@ -5886,15 +5886,15 @@
         <v>95002</v>
       </c>
       <c r="N98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -5930,15 +5930,15 @@
         <v>157773</v>
       </c>
       <c r="N99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -5974,15 +5974,15 @@
         <v>176967</v>
       </c>
       <c r="N100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C101">
         <v>742</v>
@@ -6018,15 +6018,15 @@
         <v>268912</v>
       </c>
       <c r="N101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C102">
         <v>10285</v>
@@ -6062,15 +6062,15 @@
         <v>253659</v>
       </c>
       <c r="N102" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C103">
         <v>217</v>
@@ -6106,15 +6106,15 @@
         <v>184927</v>
       </c>
       <c r="N103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C104">
         <v>1819</v>
@@ -6150,15 +6150,15 @@
         <v>434516</v>
       </c>
       <c r="N104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C105">
         <v>2472</v>
@@ -6194,15 +6194,15 @@
         <v>135501</v>
       </c>
       <c r="N105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C106">
         <v>2156</v>
@@ -6238,15 +6238,15 @@
         <v>90927</v>
       </c>
       <c r="N106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C107">
         <v>62</v>
@@ -6282,15 +6282,15 @@
         <v>305145</v>
       </c>
       <c r="N107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6326,15 +6326,15 @@
         <v>223535</v>
       </c>
       <c r="N108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -6370,15 +6370,15 @@
         <v>253600</v>
       </c>
       <c r="N109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C110">
         <v>2678</v>
@@ -6414,15 +6414,15 @@
         <v>97621</v>
       </c>
       <c r="N110" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C111">
         <v>3345</v>
@@ -6458,15 +6458,15 @@
         <v>92404</v>
       </c>
       <c r="N111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C112">
         <v>33</v>
@@ -6502,15 +6502,15 @@
         <v>140740</v>
       </c>
       <c r="N112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C113">
         <v>911</v>
@@ -6546,15 +6546,15 @@
         <v>60085</v>
       </c>
       <c r="N113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C114">
         <v>8</v>
@@ -6590,15 +6590,15 @@
         <v>166090</v>
       </c>
       <c r="N114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C115">
         <v>26</v>
@@ -6634,15 +6634,15 @@
         <v>127031</v>
       </c>
       <c r="N115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C116">
         <v>1977</v>
@@ -6678,15 +6678,15 @@
         <v>89461</v>
       </c>
       <c r="N116" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C117">
         <v>1798</v>
@@ -6722,15 +6722,15 @@
         <v>104797</v>
       </c>
       <c r="N117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C118">
         <v>143</v>
@@ -6766,15 +6766,15 @@
         <v>217348</v>
       </c>
       <c r="N118" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C119">
         <v>2711</v>
@@ -6810,15 +6810,15 @@
         <v>248825</v>
       </c>
       <c r="N119" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C120">
         <v>2192</v>
@@ -6854,15 +6854,15 @@
         <v>191668</v>
       </c>
       <c r="N120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C121">
         <v>1987</v>
@@ -6898,15 +6898,15 @@
         <v>54499</v>
       </c>
       <c r="N121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B122" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C122">
         <v>62</v>
@@ -6942,15 +6942,15 @@
         <v>293740</v>
       </c>
       <c r="N122" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C123">
         <v>301</v>
@@ -6986,15 +6986,15 @@
         <v>138261</v>
       </c>
       <c r="N123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C124">
         <v>1657</v>
@@ -7030,15 +7030,15 @@
         <v>197638</v>
       </c>
       <c r="N124" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C125">
         <v>1389</v>
@@ -7074,15 +7074,15 @@
         <v>68809</v>
       </c>
       <c r="N125" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C126">
         <v>85</v>
@@ -7118,15 +7118,15 @@
         <v>209798</v>
       </c>
       <c r="N126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C127">
         <v>822</v>
@@ -7162,15 +7162,15 @@
         <v>127764</v>
       </c>
       <c r="N127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C128">
         <v>2178</v>
@@ -7206,15 +7206,15 @@
         <v>151315</v>
       </c>
       <c r="N128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C129">
         <v>86</v>
@@ -7250,7 +7250,7 @@
         <v>105551</v>
       </c>
       <c r="N129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
